--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ammie\Study\Selenium_Cert\Repo\DataDriven\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ammie\Study\Selenium_Cert\EclipseRepo\Testing_Frameworks\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC1E7D-10D0-4933-9495-C4CEB93ECEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31CD9F-1610-4AE9-A0A7-6F6EE426A790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B417D9A-E5D0-4AB5-A723-4A2106BB0FF0}"/>
+    <workbookView xWindow="5760" yWindow="684" windowWidth="12240" windowHeight="11676" xr2:uid="{2B417D9A-E5D0-4AB5-A723-4A2106BB0FF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_accounts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Postcode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mngr262644</t>
+  </si>
+  <si>
+    <t>Ahudume</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
@@ -393,28 +402,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC3994A-1D1B-4A5A-8726-CAE562BBF0E9}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ammie\Study\Selenium_Cert\EclipseRepo\Testing_Frameworks\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31CD9F-1610-4AE9-A0A7-6F6EE426A790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3D7E40EC-A361-4F30-99F9-7DE40C8C50F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="684" windowWidth="12240" windowHeight="11676" xr2:uid="{2B417D9A-E5D0-4AB5-A723-4A2106BB0FF0}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12264" windowHeight="13224" xr2:uid="{2B417D9A-E5D0-4AB5-A723-4A2106BB0FF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_accounts" sheetId="1" r:id="rId1"/>
+    <sheet name="PepperFrySearch" sheetId="2" r:id="rId1"/>
+    <sheet name="test_accounts" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -51,6 +48,18 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Bedsheets</t>
+  </si>
+  <si>
+    <t>Clocks</t>
+  </si>
+  <si>
+    <t>Padlocks</t>
   </si>
 </sst>
 </file>
@@ -401,10 +410,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5D52A6-9AB6-4FD6-B4FC-B4D1D9704B75}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC3994A-1D1B-4A5A-8726-CAE562BBF0E9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
